--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf15-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf15-Fgfr2.xlsx
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Fgf15</t>
+  </si>
+  <si>
+    <t>Fgfr2</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf15</t>
-  </si>
-  <si>
-    <t>Fgfr2</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,46 +540,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01262966666666667</v>
+        <v>0.018508</v>
       </c>
       <c r="H2">
-        <v>0.037889</v>
+        <v>0.055524</v>
       </c>
       <c r="I2">
-        <v>0.2013851240020835</v>
+        <v>0.2347866901774728</v>
       </c>
       <c r="J2">
-        <v>0.2013851240020835</v>
+        <v>0.3151800006811757</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.493831</v>
+        <v>0.2858606666666667</v>
       </c>
       <c r="N2">
-        <v>1.481493</v>
+        <v>0.857582</v>
       </c>
       <c r="O2">
-        <v>0.1121895146192186</v>
+        <v>0.0687156860066334</v>
       </c>
       <c r="P2">
-        <v>0.1134277760249069</v>
+        <v>0.06932858672617494</v>
       </c>
       <c r="Q2">
-        <v>0.006236920919666666</v>
+        <v>0.005290709218666667</v>
       </c>
       <c r="R2">
-        <v>0.05613228827699999</v>
+        <v>0.047616382968</v>
       </c>
       <c r="S2">
-        <v>0.02259329931332489</v>
+        <v>0.01613352848077194</v>
       </c>
       <c r="T2">
-        <v>0.02284266674005643</v>
+        <v>0.02185098401158076</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.01262966666666667</v>
+        <v>0.018508</v>
       </c>
       <c r="H3">
-        <v>0.037889</v>
+        <v>0.055524</v>
       </c>
       <c r="I3">
-        <v>0.2013851240020835</v>
+        <v>0.2347866901774728</v>
       </c>
       <c r="J3">
-        <v>0.2013851240020835</v>
+        <v>0.3151800006811757</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>11.290081</v>
       </c>
       <c r="O3">
-        <v>0.85496773012202</v>
+        <v>0.9046431256549901</v>
       </c>
       <c r="P3">
-        <v>0.8644042050627692</v>
+        <v>0.9127119736118995</v>
       </c>
       <c r="Q3">
-        <v>0.04752998655655555</v>
+        <v>0.06965227304933333</v>
       </c>
       <c r="R3">
-        <v>0.427769879009</v>
+        <v>0.6268704574440001</v>
       </c>
       <c r="S3">
-        <v>0.1721777823484029</v>
+        <v>0.2123981652643387</v>
       </c>
       <c r="T3">
-        <v>0.1740781480244882</v>
+        <v>0.2876685604647157</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,46 +664,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.01262966666666667</v>
+        <v>0.018508</v>
       </c>
       <c r="H4">
-        <v>0.037889</v>
+        <v>0.055524</v>
       </c>
       <c r="I4">
-        <v>0.2013851240020835</v>
+        <v>0.2347866901774728</v>
       </c>
       <c r="J4">
-        <v>0.2013851240020835</v>
+        <v>0.3151800006811757</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0004073333333333333</v>
+        <v>0.110331</v>
       </c>
       <c r="N4">
-        <v>0.001222</v>
+        <v>0.220662</v>
       </c>
       <c r="O4">
-        <v>9.253880164447964E-05</v>
+        <v>0.02652155835639462</v>
       </c>
       <c r="P4">
-        <v>9.356017362379453E-05</v>
+        <v>0.01783874265571248</v>
       </c>
       <c r="Q4">
-        <v>5.144484222222222E-06</v>
+        <v>0.002042006148</v>
       </c>
       <c r="R4">
-        <v>4.6300358E-05</v>
+        <v>0.012252036888</v>
       </c>
       <c r="S4">
-        <v>1.863593804417774E-05</v>
+        <v>0.006226908904846587</v>
       </c>
       <c r="T4">
-        <v>1.884162716688433E-05</v>
+        <v>0.005622414922378776</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.01262966666666667</v>
+        <v>0.018508</v>
       </c>
       <c r="H5">
-        <v>0.037889</v>
+        <v>0.055524</v>
       </c>
       <c r="I5">
-        <v>0.2013851240020835</v>
+        <v>0.2347866901774728</v>
       </c>
       <c r="J5">
-        <v>0.2013851240020835</v>
+        <v>0.3151800006811757</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1441585</v>
+        <v>0.0004976666666666667</v>
       </c>
       <c r="N5">
-        <v>0.288317</v>
+        <v>0.001493</v>
       </c>
       <c r="O5">
-        <v>0.03275021645711715</v>
+        <v>0.0001196299819817856</v>
       </c>
       <c r="P5">
-        <v>0.02207445873870014</v>
+        <v>0.0001206970062130259</v>
       </c>
       <c r="Q5">
-        <v>0.001820673802166667</v>
+        <v>9.210814666666666E-06</v>
       </c>
       <c r="R5">
-        <v>0.010924042813</v>
+        <v>8.289733199999999E-05</v>
       </c>
       <c r="S5">
-        <v>0.006595406402311613</v>
+        <v>2.808752751549415E-05</v>
       </c>
       <c r="T5">
-        <v>0.004445467610372004</v>
+        <v>3.804128250043737E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.05008433333333333</v>
+        <v>0.060321</v>
       </c>
       <c r="H6">
-        <v>0.150253</v>
+        <v>0.120642</v>
       </c>
       <c r="I6">
-        <v>0.7986148759979164</v>
+        <v>0.7652133098225272</v>
       </c>
       <c r="J6">
-        <v>0.7986148759979165</v>
+        <v>0.6848199993188243</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.493831</v>
+        <v>0.2858606666666667</v>
       </c>
       <c r="N6">
-        <v>1.481493</v>
+        <v>0.857582</v>
       </c>
       <c r="O6">
-        <v>0.1121895146192186</v>
+        <v>0.0687156860066334</v>
       </c>
       <c r="P6">
-        <v>0.1134277760249069</v>
+        <v>0.06932858672617494</v>
       </c>
       <c r="Q6">
-        <v>0.02473319641433333</v>
+        <v>0.017243401274</v>
       </c>
       <c r="R6">
-        <v>0.222598767729</v>
+        <v>0.103460407644</v>
       </c>
       <c r="S6">
-        <v>0.08959621530589365</v>
+        <v>0.05258215752586146</v>
       </c>
       <c r="T6">
-        <v>0.09058510928485047</v>
+        <v>0.04747760271459418</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,25 +841,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.05008433333333333</v>
+        <v>0.060321</v>
       </c>
       <c r="H7">
-        <v>0.150253</v>
+        <v>0.120642</v>
       </c>
       <c r="I7">
-        <v>0.7986148759979164</v>
+        <v>0.7652133098225272</v>
       </c>
       <c r="J7">
-        <v>0.7986148759979165</v>
+        <v>0.6848199993188243</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,22 +874,22 @@
         <v>11.290081</v>
       </c>
       <c r="O7">
-        <v>0.85496773012202</v>
+        <v>0.9046431256549901</v>
       </c>
       <c r="P7">
-        <v>0.8644042050627692</v>
+        <v>0.9127119736118995</v>
       </c>
       <c r="Q7">
-        <v>0.1884853933881111</v>
+        <v>0.227009658667</v>
       </c>
       <c r="R7">
-        <v>1.696368540493</v>
+        <v>1.362057952002</v>
       </c>
       <c r="S7">
-        <v>0.682789947773617</v>
+        <v>0.6922449603906513</v>
       </c>
       <c r="T7">
-        <v>0.690326057038281</v>
+        <v>0.6250434131471838</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.05008433333333333</v>
+        <v>0.060321</v>
       </c>
       <c r="H8">
-        <v>0.150253</v>
+        <v>0.120642</v>
       </c>
       <c r="I8">
-        <v>0.7986148759979164</v>
+        <v>0.7652133098225272</v>
       </c>
       <c r="J8">
-        <v>0.7986148759979165</v>
+        <v>0.6848199993188243</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0004073333333333333</v>
+        <v>0.110331</v>
       </c>
       <c r="N8">
-        <v>0.001222</v>
+        <v>0.220662</v>
       </c>
       <c r="O8">
-        <v>9.253880164447964E-05</v>
+        <v>0.02652155835639462</v>
       </c>
       <c r="P8">
-        <v>9.356017362379453E-05</v>
+        <v>0.01783874265571248</v>
       </c>
       <c r="Q8">
-        <v>2.040101844444444E-05</v>
+        <v>0.006655276251</v>
       </c>
       <c r="R8">
-        <v>0.000183609166</v>
+        <v>0.026621105004</v>
       </c>
       <c r="S8">
-        <v>7.390286360030189E-05</v>
+        <v>0.02029464945154803</v>
       </c>
       <c r="T8">
-        <v>7.471854645691021E-05</v>
+        <v>0.0122163277333337</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,49 +971,49 @@
         <v>1</v>
       </c>
       <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.060321</v>
+      </c>
+      <c r="H9">
+        <v>0.120642</v>
+      </c>
+      <c r="I9">
+        <v>0.7652133098225272</v>
+      </c>
+      <c r="J9">
+        <v>0.6848199993188243</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G9">
-        <v>0.05008433333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.150253</v>
-      </c>
-      <c r="I9">
-        <v>0.7986148759979164</v>
-      </c>
-      <c r="J9">
-        <v>0.7986148759979165</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
-        <v>0.1441585</v>
+        <v>0.0004976666666666667</v>
       </c>
       <c r="N9">
-        <v>0.288317</v>
+        <v>0.001493</v>
       </c>
       <c r="O9">
-        <v>0.03275021645711715</v>
+        <v>0.0001196299819817856</v>
       </c>
       <c r="P9">
-        <v>0.02207445873870014</v>
+        <v>0.0001206970062130259</v>
       </c>
       <c r="Q9">
-        <v>0.007220082366833334</v>
+        <v>3.0019751E-05</v>
       </c>
       <c r="R9">
-        <v>0.043320494201</v>
+        <v>0.000180118506</v>
       </c>
       <c r="S9">
-        <v>0.02615481005480553</v>
+        <v>9.154245446629145E-05</v>
       </c>
       <c r="T9">
-        <v>0.01762899112832813</v>
+        <v>8.265572371258853E-05</v>
       </c>
     </row>
   </sheetData>
